--- a/Line Item Charges grant/charges.xlsx
+++ b/Line Item Charges grant/charges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\Flexi-TEER\Line Item Charges grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{870AC24E-846D-4329-B788-594220F742F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084CD1E4-72B8-43E9-85DF-0D61E0609B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6E327D4-087E-436A-9325-800F9F705EE9}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{D6E327D4-087E-436A-9325-800F9F705EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Purchase</t>
   </si>
@@ -44,9 +44,6 @@
     <t>reason</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>circuit lab membership</t>
   </si>
   <si>
@@ -63,14 +60,43 @@
   </si>
   <si>
     <t>install pcb fix for board</t>
+  </si>
+  <si>
+    <t>prototype1 parts</t>
+  </si>
+  <si>
+    <t>missing smd parts</t>
+  </si>
+  <si>
+    <t>prototype1</t>
+  </si>
+  <si>
+    <t>sept dennis parts</t>
+  </si>
+  <si>
+    <t>spare parts/parts for potential fixes</t>
+  </si>
+  <si>
+    <t>running total</t>
+  </si>
+  <si>
+    <t>price (USD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,19 +441,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFD9D3-524C-422C-ABD1-C3247FE6B603}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,43 +463,81 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <f>SUM(C3:C27)</f>
+        <v>437.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>12.83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5">
         <v>13.84</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>279.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>88.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Line Item Charges grant/charges.xlsx
+++ b/Line Item Charges grant/charges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\Flexi-TEER\Line Item Charges grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084CD1E4-72B8-43E9-85DF-0D61E0609B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE931601-41DC-4834-8666-9C016DF75746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{D6E327D4-087E-436A-9325-800F9F705EE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6E327D4-087E-436A-9325-800F9F705EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Purchase</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>price (USD)</t>
+  </si>
+  <si>
+    <t>ship prototype to dennis</t>
+  </si>
+  <si>
+    <t>ship charge</t>
   </si>
 </sst>
 </file>
@@ -145,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -291,7 +297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFD9D3-524C-422C-ABD1-C3247FE6B603}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
@@ -481,7 +487,7 @@
       </c>
       <c r="G3">
         <f>SUM(C3:C27)</f>
-        <v>437.86</v>
+        <v>1995.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -534,6 +540,17 @@
       </c>
       <c r="C8">
         <v>88.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1557.64</v>
       </c>
     </row>
   </sheetData>

--- a/Line Item Charges grant/charges.xlsx
+++ b/Line Item Charges grant/charges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\Flexi-TEER\Line Item Charges grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE931601-41DC-4834-8666-9C016DF75746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB57470-AD67-4F1B-B9C3-D94A04CCB353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6E327D4-087E-436A-9325-800F9F705EE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Purchase</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>ship charge</t>
+  </si>
+  <si>
+    <t>protype 2</t>
+  </si>
+  <si>
+    <t>prototype 2 dennis</t>
+  </si>
+  <si>
+    <t>prototype 2 for me</t>
+  </si>
+  <si>
+    <t>prototype 2 for dennis</t>
   </si>
 </sst>
 </file>
@@ -447,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFD9D3-524C-422C-ABD1-C3247FE6B603}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +499,7 @@
       </c>
       <c r="G3">
         <f>SUM(C3:C27)</f>
-        <v>1995.5</v>
+        <v>2524.64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,6 +563,28 @@
       </c>
       <c r="C9">
         <v>1557.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>272.54000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>256.60000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Line Item Charges grant/charges.xlsx
+++ b/Line Item Charges grant/charges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\Flexi-TEER\Line Item Charges grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB57470-AD67-4F1B-B9C3-D94A04CCB353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88C2AF-89F1-41EA-9989-2828E849BBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6E327D4-087E-436A-9325-800F9F705EE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Purchase</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>prototype 2 for dennis</t>
+  </si>
+  <si>
+    <t>liqcreate bio resin</t>
+  </si>
+  <si>
+    <t>autoclavable resin</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFD9D3-524C-422C-ABD1-C3247FE6B603}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +505,7 @@
       </c>
       <c r="G3">
         <f>SUM(C3:C27)</f>
-        <v>2524.64</v>
+        <v>2651.7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,6 +591,17 @@
       </c>
       <c r="C11">
         <v>256.60000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>127.06</v>
       </c>
     </row>
   </sheetData>

--- a/Line Item Charges grant/charges.xlsx
+++ b/Line Item Charges grant/charges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\Flexi-TEER\Line Item Charges grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D88C2AF-89F1-41EA-9989-2828E849BBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7BAE2F-5996-4171-B15B-5D3C3AA8F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6E327D4-087E-436A-9325-800F9F705EE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Purchase</t>
   </si>
@@ -105,6 +105,27 @@
   </si>
   <si>
     <t>autoclavable resin</t>
+  </si>
+  <si>
+    <t>amazon order 1</t>
+  </si>
+  <si>
+    <t>amazon order 2</t>
+  </si>
+  <si>
+    <t>build chambers</t>
+  </si>
+  <si>
+    <t>accuglass</t>
+  </si>
+  <si>
+    <t>wire for connectors</t>
+  </si>
+  <si>
+    <t>connector parts</t>
+  </si>
+  <si>
+    <t>special autoclavable connector</t>
   </si>
 </sst>
 </file>
@@ -465,16 +486,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFD9D3-524C-422C-ABD1-C3247FE6B603}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
@@ -505,7 +526,7 @@
       </c>
       <c r="G3">
         <f>SUM(C3:C27)</f>
-        <v>2651.7</v>
+        <v>3062.44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -602,6 +623,50 @@
       </c>
       <c r="C12">
         <v>127.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>69.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>252.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>57.79</v>
       </c>
     </row>
   </sheetData>

--- a/Line Item Charges grant/charges.xlsx
+++ b/Line Item Charges grant/charges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\Flexi-TEER\Line Item Charges grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7BAE2F-5996-4171-B15B-5D3C3AA8F6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F143AF0-8D77-4F4D-9271-7A5E544EEA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6E327D4-087E-436A-9325-800F9F705EE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Purchase</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>special autoclavable connector</t>
+  </si>
+  <si>
+    <t>amazon order 3</t>
+  </si>
+  <si>
+    <t>solder</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFD9D3-524C-422C-ABD1-C3247FE6B603}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +532,7 @@
       </c>
       <c r="G3">
         <f>SUM(C3:C27)</f>
-        <v>3062.44</v>
+        <v>3075.27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,6 +673,17 @@
       </c>
       <c r="C16">
         <v>57.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>12.83</v>
       </c>
     </row>
   </sheetData>
